--- a/biology/Botanique/Faros/Faros.xlsx
+++ b/biology/Botanique/Faros/Faros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Faros est un cultivar de pomme à croquer ou pour le cidre originaire de Brie.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Faro
 Faraud</t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa forme est un peu sphérique aplatie. Régulière, calibre moyen.
 Sa peau épaisse est rouge sang-jaune strié d'ombre.
@@ -577,7 +593,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Faros est une variété rustique très peu sensible aux maladies. L'arbre est vigoureux et ne se prête pas aux formes naines. Idéal pour de la haute tige.
 Le port de l'arbre est particulier, enchevêtré et vigoureux mais "pleureur", Type 4, peu alternant.
